--- a/api/routes/reporting/templates/appraisal.xlsx
+++ b/api/routes/reporting/templates/appraisal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\AdminUtils\appraisal-web-back\api\routes\reporting\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C4F5A8-03D6-46D5-899D-A72D72A3D0C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D2F376-F917-48EF-A67F-2A498CACD1B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20386833-1F21-4473-8C0C-B289885237B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20386833-1F21-4473-8C0C-B289885237B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,14 +234,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,9 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58FE0A8-BE0E-4387-902A-26D2CDE43614}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -647,7 +645,7 @@
     <col min="5" max="5" width="108.28515625" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" customWidth="1"/>
     <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="38.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
@@ -667,7 +665,7 @@
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -709,7 +707,7 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -756,7 +754,7 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -803,7 +801,7 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -841,14 +839,14 @@
       <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="1" t="s">
         <v>1</v>
       </c>
@@ -886,7 +884,7 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -931,7 +929,7 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -976,7 +974,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1029,7 +1027,7 @@
       <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="J9"/>
@@ -1056,7 +1054,7 @@
       <c r="G10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J10"/>
@@ -1083,7 +1081,7 @@
       <c r="G11" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>22</v>
       </c>
       <c r="J11"/>

--- a/api/routes/reporting/templates/appraisal.xlsx
+++ b/api/routes/reporting/templates/appraisal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\AdminUtils\appraisal-web-back\api\routes\reporting\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D2F376-F917-48EF-A67F-2A498CACD1B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBF492F-5880-4413-9A40-B58E502EAA4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20386833-1F21-4473-8C0C-B289885237B9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="42">
   <si>
     <t>Period</t>
   </si>
@@ -124,6 +124,33 @@
   </si>
   <si>
     <t>{d.periods}</t>
+  </si>
+  <si>
+    <t>Modified user</t>
+  </si>
+  <si>
+    <t>Modified date</t>
+  </si>
+  <si>
+    <t>{d.data[i].modifiedDate:formatDExcel()}</t>
+  </si>
+  <si>
+    <t>{d.data[i+1].modifiedDate:formatDExcel()}</t>
+  </si>
+  <si>
+    <t>{d.data[i].modifiedUserDetails.username}</t>
+  </si>
+  <si>
+    <t>{d.data[i+1].modifiedUserDetails.username}</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>{d.data[i+1].userTeams:arrayMap(/ ,/ ,name)}</t>
+  </si>
+  <si>
+    <t>{d.data[i].userTeams:arrayMap(/ ,/ ,name)}</t>
   </si>
 </sst>
 </file>
@@ -134,7 +161,7 @@
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy\ hh:mm"/>
     <numFmt numFmtId="165" formatCode="d\-mmm\-yy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +173,12 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -242,11 +275,20 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d\-mmm\-yy\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d\-mmm\-yy\ hh:mm:ss"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="d\-mmm\-yy\ hh:mm:ss"/>
     </dxf>
@@ -319,17 +361,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23F69381-6ACD-4804-A9D9-EF82B2932919}" name="Data" displayName="Data" ref="A9:H11" totalsRowShown="0">
-  <autoFilter ref="A9:H11" xr:uid="{E646E2E6-A103-4471-A352-B408F533067A}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23F69381-6ACD-4804-A9D9-EF82B2932919}" name="Data" displayName="Data" ref="A9:K11" totalsRowShown="0">
+  <autoFilter ref="A9:K11" xr:uid="{E646E2E6-A103-4471-A352-B408F533067A}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{46855BC2-52A3-4226-8C6F-52B5F2801D8D}" name="Period"/>
     <tableColumn id="2" xr3:uid="{A173CA89-404B-45A3-893D-B262903BE7AA}" name="Username"/>
     <tableColumn id="5" xr3:uid="{2D8CABFA-AABF-434E-BE68-30B40CA2C1EB}" name="Type"/>
     <tableColumn id="6" xr3:uid="{2CC03AE5-B0C3-4C09-AD01-18DAA8B2A9F8}" name="Status"/>
     <tableColumn id="3" xr3:uid="{BA8D894F-D589-48B2-B465-1997249701BC}" name="Content"/>
     <tableColumn id="8" xr3:uid="{05B6B485-1D42-4231-9F92-682AE2D4C2BF}" name="Role"/>
+    <tableColumn id="11" xr3:uid="{E1BE98AF-9318-434B-ABEA-3145C7FD4691}" name="Teams"/>
     <tableColumn id="7" xr3:uid="{ABE2C07B-DCCE-459F-83AD-537CA0F0706B}" name="Created user"/>
-    <tableColumn id="4" xr3:uid="{B860D24A-F058-4828-9D4D-34A99D8B54F1}" name="Date created" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{B860D24A-F058-4828-9D4D-34A99D8B54F1}" name="Date created" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{315D6D03-F54A-4125-B973-60C9DD3E200A}" name="Modified user" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{FD26DA78-DF0D-4CFF-B301-CCA53B9F7B4C}" name="Modified date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -632,9 +677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58FE0A8-BE0E-4387-902A-26D2CDE43614}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -643,15 +690,15 @@
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="108.28515625" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="38.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="36.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="9" max="11" width="38.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -665,35 +712,42 @@
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -707,16 +761,14 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -737,8 +789,17 @@
       <c r="Q2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="R2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -754,16 +815,14 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -784,8 +843,17 @@
       <c r="Q3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="R3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -801,16 +869,14 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -831,49 +897,61 @@
       <c r="Q4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="R4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="R5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -884,16 +962,14 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -914,8 +990,17 @@
       <c r="Q6" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="R6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -929,16 +1014,14 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -959,8 +1042,17 @@
       <c r="Q7" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="R7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -974,16 +1066,14 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -1004,8 +1094,17 @@
       <c r="Q8" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="R8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1025,14 +1124,23 @@
         <v>23</v>
       </c>
       <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J9"/>
+      <c r="J9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1052,14 +1160,23 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J10"/>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1079,17 +1196,27 @@
         <v>25</v>
       </c>
       <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J11"/>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C5:I5"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/api/routes/reporting/templates/appraisal.xlsx
+++ b/api/routes/reporting/templates/appraisal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\AdminUtils\appraisal-web-back\api\routes\reporting\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBF492F-5880-4413-9A40-B58E502EAA4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA7EDC3-0C4B-4C5B-A692-4875E42F6C9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20386833-1F21-4473-8C0C-B289885237B9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="42">
   <si>
     <t>Period</t>
   </si>
@@ -310,13 +310,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:colOff>828675</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:colOff>1781175</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -347,7 +347,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733425" y="104775"/>
+          <a:off x="828675" y="104775"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -679,9 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58FE0A8-BE0E-4387-902A-26D2CDE43614}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -699,9 +697,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>

--- a/api/routes/reporting/templates/appraisal.xlsx
+++ b/api/routes/reporting/templates/appraisal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\AdminUtils\appraisal-web-back\api\routes\reporting\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA7EDC3-0C4B-4C5B-A692-4875E42F6C9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9181C43-FE04-434F-B0D0-431586D244CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20386833-1F21-4473-8C0C-B289885237B9}"/>
   </bookViews>
@@ -36,12 +36,6 @@
     <t>{d.data:tableGuide(Data)}</t>
   </si>
   <si>
-    <t>{d.data[i].periodDetails.name}</t>
-  </si>
-  <si>
-    <t>{d.data[i+1].periodDetails.name}</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -57,12 +51,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>{d.data[i+1].userDetails.username}</t>
-  </si>
-  <si>
-    <t>{d.data[i].userDetails.username}</t>
-  </si>
-  <si>
     <t>{d.data[i].content}</t>
   </si>
   <si>
@@ -84,12 +72,6 @@
     <t>Created user</t>
   </si>
   <si>
-    <t>{d.data[i].createdUserDetails.username}</t>
-  </si>
-  <si>
-    <t>{d.data[i+1].createdUserDetails.username}</t>
-  </si>
-  <si>
     <t>{d.data[i].createdDate:formatDExcel()}</t>
   </si>
   <si>
@@ -99,12 +81,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>{d.data[i].userDetails.role.name}</t>
-  </si>
-  <si>
-    <t>{d.data[i+1].userDetails.role.name}</t>
-  </si>
-  <si>
     <t>Appraisal report</t>
   </si>
   <si>
@@ -138,19 +114,43 @@
     <t>{d.data[i+1].modifiedDate:formatDExcel()}</t>
   </si>
   <si>
-    <t>{d.data[i].modifiedUserDetails.username}</t>
-  </si>
-  <si>
-    <t>{d.data[i+1].modifiedUserDetails.username}</t>
-  </si>
-  <si>
     <t>Teams</t>
   </si>
   <si>
-    <t>{d.data[i+1].userTeams:arrayMap(/ ,/ ,name)}</t>
-  </si>
-  <si>
-    <t>{d.data[i].userTeams:arrayMap(/ ,/ ,name)}</t>
+    <t>{d.data[i].periodId.name}</t>
+  </si>
+  <si>
+    <t>{d.data[i+1].periodId.name}</t>
+  </si>
+  <si>
+    <t>{d.data[i].user.username}</t>
+  </si>
+  <si>
+    <t>{d.data[i+1].user.username}</t>
+  </si>
+  <si>
+    <t>{d.data[i].user.role.name}</t>
+  </si>
+  <si>
+    <t>{d.data[i+1].user.role.name}</t>
+  </si>
+  <si>
+    <t>{d.data[i].user.teams:arrayMap(/ ,/ ,name)}</t>
+  </si>
+  <si>
+    <t>{d.data[i+1].user.teams:arrayMap(/ ,/ ,name)}</t>
+  </si>
+  <si>
+    <t>{d.data[i].createdUser.username}</t>
+  </si>
+  <si>
+    <t>{d.data[i+1].createdUser.username}</t>
+  </si>
+  <si>
+    <t>{d.data[i].modifiedUser.username}</t>
+  </si>
+  <si>
+    <t>{d.data[i+1].modifiedUser.username}</t>
   </si>
 </sst>
 </file>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -800,10 +800,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
@@ -854,10 +854,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
@@ -908,10 +908,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1105,106 +1105,106 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>7</v>
-      </c>
       <c r="J9" s="11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M9"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M10"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M11"/>
     </row>
